--- a/dat/B. TECH. II SEM JUNE 2019.xlsx
+++ b/dat/B. TECH. II SEM JUNE 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\django\webresult\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98BA30-EBCF-4124-8FD4-ED8D2190D445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F33F98-4B98-40B0-AC59-71477676D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -2794,11 +2794,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2811,24 +2829,6 @@
     </xf>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4090,7 +4090,7 @@
   </sheetPr>
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C33" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -4111,167 +4111,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="169" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
     </row>
     <row r="4" spans="1:32" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="163" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>636</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>647</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158" t="s">
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165" t="s">
         <v>634</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158" t="s">
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158" t="s">
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165" t="s">
         <v>635</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158" t="s">
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="107" t="s">
         <v>598</v>
       </c>
@@ -4286,12 +4286,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="24"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -4362,12 +4362,12 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="63" t="s">
         <v>2</v>
       </c>
@@ -4444,12 +4444,12 @@
       <c r="AF6" s="129"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="26" t="s">
         <v>3</v>
       </c>
@@ -10281,11 +10281,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10297,6 +10292,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68 V8:V68">
@@ -10446,98 +10446,98 @@
       <c r="AF2" s="173"/>
     </row>
     <row r="3" spans="1:32" s="64" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="169" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="163" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>645</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
       <c r="R4" s="171"/>
       <c r="S4" s="172"/>
-      <c r="T4" s="158" t="s">
+      <c r="T4" s="165" t="s">
         <v>601</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
       <c r="W4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="X4" s="171"/>
       <c r="Y4" s="172"/>
-      <c r="Z4" s="158" t="s">
+      <c r="Z4" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="114" t="s">
         <v>598</v>
       </c>
@@ -10552,12 +10552,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="32"/>
       <c r="H5" s="51" t="s">
         <v>7</v>
@@ -10628,12 +10628,12 @@
       <c r="AF5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="33" t="s">
         <v>2</v>
       </c>
@@ -10710,12 +10710,12 @@
       <c r="AF6" s="46"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="34" t="s">
         <v>3</v>
       </c>
@@ -16261,96 +16261,96 @@
       <c r="AF2" s="173"/>
     </row>
     <row r="3" spans="1:32" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="169" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
     </row>
     <row r="4" spans="1:32" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="162" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="99"/>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="163" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>623</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>647</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158" t="s">
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165" t="s">
         <v>624</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158" t="s">
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158" t="s">
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165" t="s">
         <v>606</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158" t="s">
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="114" t="s">
         <v>598</v>
       </c>
@@ -16365,12 +16365,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="166"/>
       <c r="C5" s="100"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="67"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -16441,12 +16441,12 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
-      <c r="B6" s="160"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="100"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="67" t="s">
         <v>2</v>
       </c>
@@ -16523,12 +16523,12 @@
       <c r="AF6" s="25"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="101"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="68" t="s">
         <v>3</v>
       </c>
@@ -21837,42 +21837,42 @@
       <c r="AI3" s="175"/>
     </row>
     <row r="4" spans="1:35" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="163" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>604</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
@@ -21883,21 +21883,21 @@
       </c>
       <c r="U4" s="171"/>
       <c r="V4" s="172"/>
-      <c r="W4" s="158" t="s">
+      <c r="W4" s="165" t="s">
         <v>601</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
       <c r="Z4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="AA4" s="171"/>
       <c r="AB4" s="172"/>
-      <c r="AC4" s="158" t="s">
+      <c r="AC4" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
       <c r="AF4" s="107" t="s">
         <v>599</v>
       </c>
@@ -21912,12 +21912,12 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
       <c r="G5" s="23"/>
       <c r="H5" s="51" t="s">
         <v>7</v>
@@ -21997,12 +21997,12 @@
       <c r="AI5" s="23"/>
     </row>
     <row r="6" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="167"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="23" t="s">
         <v>2</v>
       </c>
@@ -22088,12 +22088,12 @@
       <c r="AI6" s="25"/>
     </row>
     <row r="7" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -28493,6 +28493,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AI1"/>
@@ -28509,7 +28510,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H68 K8:K68 Q8:Q68">
     <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28575,121 +28575,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
       <c r="AI1" s="9"/>
     </row>
     <row r="2" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
-      <c r="AF2" s="162"/>
-      <c r="AG2" s="162"/>
-      <c r="AH2" s="162"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
       <c r="AI2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="169" t="s">
         <v>588</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="169"/>
+      <c r="Y3" s="169"/>
+      <c r="Z3" s="169"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="169"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="169"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="169"/>
     </row>
     <row r="4" spans="1:35" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="178" t="s">
@@ -28713,46 +28713,46 @@
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
       <c r="N4" s="170" t="s">
         <v>594</v>
       </c>
       <c r="O4" s="171"/>
       <c r="P4" s="172"/>
-      <c r="Q4" s="158" t="s">
+      <c r="Q4" s="165" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158" t="s">
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165" t="s">
         <v>638</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158" t="s">
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165" t="s">
         <v>639</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158" t="s">
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165" t="s">
         <v>597</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158" t="s">
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165" t="s">
         <v>642</v>
       </c>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
       <c r="AF4" s="107" t="s">
         <v>598</v>
       </c>
@@ -28943,10 +28943,10 @@
       <c r="AI6" s="61"/>
     </row>
     <row r="7" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="177"/>
       <c r="F7" s="177"/>
       <c r="G7" s="7" t="s">
@@ -29109,6 +29109,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
@@ -29125,7 +29126,6 @@
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8 AE8 Y8">
     <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="lessThan">
@@ -29170,8 +29170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I8" sqref="A1:AF60"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -29194,75 +29194,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
       <c r="AF1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="162"/>
-      <c r="AD2" s="162"/>
-      <c r="AE2" s="162"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
       <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29323,41 +29323,41 @@
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="158" t="s">
+      <c r="H4" s="165" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158" t="s">
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>645</v>
       </c>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
       <c r="R4" s="171"/>
       <c r="S4" s="172"/>
-      <c r="T4" s="158" t="s">
+      <c r="T4" s="165" t="s">
         <v>601</v>
       </c>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
       <c r="W4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="X4" s="171"/>
       <c r="Y4" s="172"/>
-      <c r="Z4" s="158" t="s">
+      <c r="Z4" s="165" t="s">
         <v>646</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="107" t="s">
         <v>599</v>
       </c>
@@ -31909,13 +31909,13 @@
         <v>95</v>
       </c>
       <c r="K32" s="76">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L32" s="76">
         <v>37</v>
       </c>
       <c r="M32" s="79">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="N32" s="76">
         <v>46</v>
@@ -31966,7 +31966,7 @@
         <v>47</v>
       </c>
       <c r="AD32" s="79">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="AE32" s="111" t="s">
         <v>613</v>
@@ -32005,13 +32005,13 @@
         <v>90</v>
       </c>
       <c r="K33" s="76">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="L33" s="76">
         <v>34</v>
       </c>
       <c r="M33" s="79">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="N33" s="76">
         <v>38</v>
@@ -32023,13 +32023,13 @@
         <v>79</v>
       </c>
       <c r="Q33" s="76">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="R33" s="76">
         <v>45</v>
       </c>
       <c r="S33" s="79">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="T33" s="76">
         <v>20</v>
@@ -32062,7 +32062,7 @@
         <v>47</v>
       </c>
       <c r="AD33" s="79">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="AE33" s="111" t="s">
         <v>613</v>

--- a/dat/B. TECH. II SEM JUNE 2019.xlsx
+++ b/dat/B. TECH. II SEM JUNE 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F33F98-4B98-40B0-AC59-71477676D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488CC20-385F-44FA-B4FB-2F3FE6C805C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2794,6 +2794,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2806,29 +2824,11 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2849,13 +2849,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4111,167 +4111,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
     </row>
     <row r="2" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
     </row>
     <row r="3" spans="1:32" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="163" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
     </row>
     <row r="4" spans="1:32" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="168" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>636</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>647</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165" t="s">
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158" t="s">
         <v>634</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165" t="s">
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158" t="s">
         <v>635</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165" t="s">
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="107" t="s">
         <v>598</v>
       </c>
@@ -4286,12 +4286,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="159"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="24"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -4362,12 +4362,12 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="63" t="s">
         <v>2</v>
       </c>
@@ -4444,12 +4444,12 @@
       <c r="AF6" s="129"/>
     </row>
     <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="26" t="s">
         <v>3</v>
       </c>
@@ -10281,6 +10281,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="T4:V4"/>
@@ -10292,11 +10297,6 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y68 AB8:AB68 V8:V68">
@@ -10446,98 +10446,98 @@
       <c r="AF2" s="173"/>
     </row>
     <row r="3" spans="1:32" s="64" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="163" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
     </row>
     <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="168" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>645</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
       <c r="R4" s="171"/>
       <c r="S4" s="172"/>
-      <c r="T4" s="165" t="s">
+      <c r="T4" s="158" t="s">
         <v>601</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
       <c r="W4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="X4" s="171"/>
       <c r="Y4" s="172"/>
-      <c r="Z4" s="165" t="s">
+      <c r="Z4" s="158" t="s">
         <v>640</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="114" t="s">
         <v>598</v>
       </c>
@@ -10552,12 +10552,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="32"/>
       <c r="H5" s="51" t="s">
         <v>7</v>
@@ -10628,12 +10628,12 @@
       <c r="AF5" s="32"/>
     </row>
     <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="33" t="s">
         <v>2</v>
       </c>
@@ -10710,12 +10710,12 @@
       <c r="AF6" s="46"/>
     </row>
     <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="34" t="s">
         <v>3</v>
       </c>
@@ -16261,96 +16261,96 @@
       <c r="AF2" s="173"/>
     </row>
     <row r="3" spans="1:32" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="163" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
     </row>
     <row r="4" spans="1:32" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="159" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="99"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="168" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>623</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>647</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158" t="s">
         <v>594</v>
       </c>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165" t="s">
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158" t="s">
         <v>624</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165" t="s">
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158" t="s">
         <v>596</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158" t="s">
         <v>606</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165" t="s">
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="114" t="s">
         <v>598</v>
       </c>
@@ -16365,12 +16365,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="161"/>
-      <c r="B5" s="166"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="100"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="67"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -16441,12 +16441,12 @@
       <c r="AF5" s="23"/>
     </row>
     <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="161"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="100"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="67" t="s">
         <v>2</v>
       </c>
@@ -16523,12 +16523,12 @@
       <c r="AF6" s="25"/>
     </row>
     <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="101"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="68" t="s">
         <v>3</v>
       </c>
@@ -21837,42 +21837,42 @@
       <c r="AI3" s="175"/>
     </row>
     <row r="4" spans="1:35" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="161" t="s">
+      <c r="D4" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="168" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>604</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
@@ -21883,21 +21883,21 @@
       </c>
       <c r="U4" s="171"/>
       <c r="V4" s="172"/>
-      <c r="W4" s="165" t="s">
+      <c r="W4" s="158" t="s">
         <v>601</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
       <c r="Z4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="AA4" s="171"/>
       <c r="AB4" s="172"/>
-      <c r="AC4" s="165" t="s">
+      <c r="AC4" s="158" t="s">
         <v>640</v>
       </c>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
       <c r="AF4" s="107" t="s">
         <v>599</v>
       </c>
@@ -21912,12 +21912,12 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="23"/>
       <c r="H5" s="51" t="s">
         <v>7</v>
@@ -21997,12 +21997,12 @@
       <c r="AI5" s="23"/>
     </row>
     <row r="6" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="161"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="23" t="s">
         <v>2</v>
       </c>
@@ -22088,12 +22088,12 @@
       <c r="AI6" s="25"/>
     </row>
     <row r="7" spans="1:35" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="162"/>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="37" t="s">
         <v>3</v>
       </c>
@@ -28493,6 +28493,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="C4:C7"/>
@@ -28509,7 +28510,6 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H68 K8:K68 Q8:Q68">
     <cfRule type="cellIs" dxfId="26" priority="15" stopIfTrue="1" operator="lessThan">
@@ -28575,184 +28575,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="162"/>
       <c r="AI1" s="9"/>
     </row>
     <row r="2" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
       <c r="AI2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="163" t="s">
         <v>588</v>
       </c>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
     </row>
     <row r="4" spans="1:35" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="178" t="s">
+      <c r="D4" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="177" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>592</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>593</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
       <c r="N4" s="170" t="s">
         <v>594</v>
       </c>
       <c r="O4" s="171"/>
       <c r="P4" s="172"/>
-      <c r="Q4" s="165" t="s">
+      <c r="Q4" s="158" t="s">
         <v>595</v>
       </c>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165" t="s">
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158" t="s">
         <v>638</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165" t="s">
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158" t="s">
         <v>639</v>
       </c>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165" t="s">
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158" t="s">
         <v>597</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165" t="s">
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="158" t="s">
         <v>642</v>
       </c>
-      <c r="AD4" s="165"/>
-      <c r="AE4" s="165"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
       <c r="AF4" s="107" t="s">
         <v>598</v>
       </c>
@@ -28767,12 +28767,12 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
       <c r="G5" s="3"/>
       <c r="H5" s="10" t="s">
         <v>7</v>
@@ -28852,12 +28852,12 @@
       <c r="AI5" s="60"/>
     </row>
     <row r="6" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -28943,12 +28943,12 @@
       <c r="AI6" s="61"/>
     </row>
     <row r="7" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
@@ -29109,6 +29109,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="F4:F7"/>
@@ -29125,7 +29126,6 @@
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8 AE8 Y8">
     <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="lessThan">
@@ -29170,8 +29170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -29194,75 +29194,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
       <c r="AF1" s="9"/>
     </row>
     <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
       <c r="AF2" s="9"/>
     </row>
     <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29302,62 +29302,62 @@
       <c r="AF3" s="179"/>
     </row>
     <row r="4" spans="1:32" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="178" t="s">
+      <c r="D4" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="176" t="s">
+      <c r="F4" s="177" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="158" t="s">
         <v>605</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158" t="s">
         <v>645</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165" t="s">
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158" t="s">
         <v>603</v>
       </c>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
       <c r="Q4" s="170" t="s">
         <v>602</v>
       </c>
       <c r="R4" s="171"/>
       <c r="S4" s="172"/>
-      <c r="T4" s="165" t="s">
+      <c r="T4" s="158" t="s">
         <v>601</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
       <c r="W4" s="170" t="s">
         <v>600</v>
       </c>
       <c r="X4" s="171"/>
       <c r="Y4" s="172"/>
-      <c r="Z4" s="165" t="s">
+      <c r="Z4" s="158" t="s">
         <v>646</v>
       </c>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="107" t="s">
         <v>599</v>
       </c>
@@ -29372,12 +29372,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
       <c r="G5" s="6"/>
       <c r="H5" s="51" t="s">
         <v>7</v>
@@ -29448,12 +29448,12 @@
       <c r="AF5" s="45"/>
     </row>
     <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
@@ -29530,12 +29530,12 @@
       <c r="AF6" s="35"/>
     </row>
     <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="7" t="s">
         <v>3</v>
       </c>
@@ -31337,13 +31337,13 @@
         <v>94</v>
       </c>
       <c r="K26" s="76">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L26" s="76">
         <v>32</v>
       </c>
       <c r="M26" s="79">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="N26" s="76">
         <v>40</v>
@@ -31355,13 +31355,13 @@
         <v>80</v>
       </c>
       <c r="Q26" s="76">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="R26" s="76">
         <v>41</v>
       </c>
       <c r="S26" s="79">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="T26" s="76">
         <v>19</v>
@@ -31394,7 +31394,7 @@
         <v>48</v>
       </c>
       <c r="AD26" s="79">
-        <v>458</v>
+        <v>575</v>
       </c>
       <c r="AE26" s="111" t="s">
         <v>613</v>
